--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_33.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2972820.404626347</v>
+        <v>2991195.094092468</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>25.74154532355954</v>
+        <v>14.94037681563424</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,19 +713,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>119.2957343884579</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>129.066617851613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>144.1668893702061</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481165</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>222.7021679017874</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853697</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>17.50309879408417</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>232.3056710074057</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>10.42550035781103</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>200.6921615359821</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>40.68164393332412</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>21.16154086980895</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -1424,7 +1424,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.0785952498026</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1531,19 +1531,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>140.5678108961694</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>51.63528660276717</v>
       </c>
     </row>
     <row r="14">
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>59.87208032059912</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>180.4701658042428</v>
       </c>
     </row>
     <row r="17">
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>3.633341602776929</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>268.6180137163291</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2135,7 +2135,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>96.78528632086024</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>74.80485990173251</v>
       </c>
     </row>
     <row r="23">
@@ -2479,10 +2479,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>135.5039441517755</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2491,10 +2491,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>11.89446409565971</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,16 +2719,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>55.49902558409124</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2773,10 +2773,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>162.5686151976426</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>88.9030004722574</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2968,7 +2968,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>148.0683203025997</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784703</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>0.5202582147351995</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3244,16 +3244,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>204.1291651532057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3272,10 +3272,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722621</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498017</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3421,16 +3421,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>44.28552436018857</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,22 +3472,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>192.6211591710429</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3506,13 +3506,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,19 +3554,19 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701358</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3658,22 +3658,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>33.32336386742526</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3721,10 +3721,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>78.84012649541734</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648052002</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3901,22 +3901,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>55.15393115687888</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>103.9246012702031</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4150,10 +4150,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,25 +4180,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>166.4839540398024</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>237.4804158064619</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1550.100961840373</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1550.100961840373</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1191.835263233623</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>806.0470106353782</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>395.0611058457707</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2671.147530085334</v>
+        <v>2682.057801305461</v>
       </c>
       <c r="S2" t="n">
-        <v>2494.970042399504</v>
+        <v>2505.880313619631</v>
       </c>
       <c r="T2" t="n">
-        <v>2276.335375371567</v>
+        <v>2287.245646591693</v>
       </c>
       <c r="U2" t="n">
-        <v>2276.335375371567</v>
+        <v>2033.483861229785</v>
       </c>
       <c r="V2" t="n">
-        <v>2276.335375371567</v>
+        <v>1702.420973886214</v>
       </c>
       <c r="W2" t="n">
-        <v>1923.566720101453</v>
+        <v>1349.6523186161</v>
       </c>
       <c r="X2" t="n">
-        <v>1550.100961840373</v>
+        <v>1349.6523186161</v>
       </c>
       <c r="Y2" t="n">
-        <v>1550.100961840373</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,7 +4410,7 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
         <v>670.8219208598706</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>369.7691122461817</v>
+        <v>332.1920961943574</v>
       </c>
       <c r="C4" t="n">
-        <v>200.8329293182748</v>
+        <v>332.1920961943574</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>332.1920961943574</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>332.1920961943574</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>332.1920961943574</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084171</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="Y4" t="n">
-        <v>369.7691122461817</v>
+        <v>513.8405610245972</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1282.700798147047</v>
+        <v>1525.74665604171</v>
       </c>
       <c r="C5" t="n">
-        <v>913.7382812066351</v>
+        <v>1156.784139101298</v>
       </c>
       <c r="D5" t="n">
-        <v>555.4725825998845</v>
+        <v>1156.784139101298</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>770.9958865030537</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500978</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157407</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>1656.166556408127</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X5" t="n">
-        <v>1282.700798147047</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y5" t="n">
-        <v>1282.700798147047</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="6">
@@ -4635,34 +4635,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571351</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
         <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>426.3476790823675</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C7" t="n">
-        <v>426.3476790823675</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>426.3476790823675</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>426.3476790823675</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>426.3476790823675</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788206999</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>681.0321672882544</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>681.0321672882544</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>681.0321672882544</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>681.0321672882544</v>
+        <v>493.4767912696608</v>
       </c>
       <c r="V7" t="n">
-        <v>426.3476790823675</v>
+        <v>493.4767912696608</v>
       </c>
       <c r="W7" t="n">
-        <v>426.3476790823675</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="X7" t="n">
-        <v>426.3476790823675</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="Y7" t="n">
-        <v>426.3476790823675</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1353.10866026757</v>
+        <v>1328.309493689272</v>
       </c>
       <c r="C8" t="n">
-        <v>1353.10866026757</v>
+        <v>1328.309493689272</v>
       </c>
       <c r="D8" t="n">
-        <v>994.8429616608198</v>
+        <v>970.0437950825219</v>
       </c>
       <c r="E8" t="n">
-        <v>994.8429616608198</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>583.8570568712123</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
@@ -4805,7 +4805,7 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224079</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="W8" t="n">
-        <v>2113.174258592772</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="X8" t="n">
-        <v>1739.708500331692</v>
+        <v>2105.048665729206</v>
       </c>
       <c r="Y8" t="n">
-        <v>1739.708500331692</v>
+        <v>1714.909333753394</v>
       </c>
     </row>
     <row r="9">
@@ -4881,10 +4881,10 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
         <v>670.8219208598713</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>290.8087152951862</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C10" t="n">
-        <v>290.8087152951862</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D10" t="n">
-        <v>140.6920758828504</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E10" t="n">
-        <v>140.6920758828504</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F10" t="n">
-        <v>140.6920758828504</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>140.6920758828504</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>140.6920758828504</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036446</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>706.7536903985465</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>706.7536903985465</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406182</v>
+        <v>479.4455030671483</v>
       </c>
       <c r="U10" t="n">
-        <v>290.8087152951862</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="V10" t="n">
-        <v>290.8087152951862</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="W10" t="n">
-        <v>290.8087152951862</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="X10" t="n">
-        <v>290.8087152951862</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="Y10" t="n">
-        <v>290.8087152951862</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5036,13 +5036,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5051,40 +5051,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5106,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701562</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766204</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.683698656582</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N12" t="n">
-        <v>1433.546326320615</v>
+        <v>1538.857683528587</v>
       </c>
       <c r="O12" t="n">
-        <v>1797.533454227377</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2413.343925613456</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>964.1357418247865</v>
+        <v>674.9567375132466</v>
       </c>
       <c r="C13" t="n">
-        <v>964.1357418247865</v>
+        <v>674.9567375132466</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247865</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>964.1357418247865</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>964.1357418247865</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W13" t="n">
-        <v>964.1357418247865</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="X13" t="n">
-        <v>964.1357418247865</v>
+        <v>727.1135926675569</v>
       </c>
       <c r="Y13" t="n">
-        <v>964.1357418247865</v>
+        <v>674.9567375132466</v>
       </c>
     </row>
     <row r="14">
@@ -5270,13 +5270,13 @@
         <v>488.1932370805462</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514068</v>
@@ -5358,22 +5358,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>674.428562457161</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636251</v>
+        <v>953.6472828615138</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>416.1184791449347</v>
+        <v>506.7814158330672</v>
       </c>
       <c r="C16" t="n">
-        <v>355.6416303362487</v>
+        <v>506.7814158330672</v>
       </c>
       <c r="D16" t="n">
-        <v>355.6416303362487</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E16" t="n">
-        <v>355.6416303362487</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F16" t="n">
         <v>208.7516828383384</v>
@@ -5461,25 +5461,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.921157035281</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.921157035281</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>898.7925182488389</v>
+        <v>1098.712528333287</v>
       </c>
       <c r="V16" t="n">
-        <v>644.108030042952</v>
+        <v>1098.712528333287</v>
       </c>
       <c r="W16" t="n">
-        <v>644.108030042952</v>
+        <v>1098.712528333287</v>
       </c>
       <c r="X16" t="n">
-        <v>416.1184791449347</v>
+        <v>870.7229774352693</v>
       </c>
       <c r="Y16" t="n">
-        <v>416.1184791449347</v>
+        <v>688.4298806633069</v>
       </c>
     </row>
     <row r="17">
@@ -5510,7 +5510,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
@@ -5537,16 +5537,16 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
@@ -5580,40 +5580,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277034</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341675</v>
+        <v>659.3731057211724</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>966.6932390011341</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>100.8871334832928</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347409</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609669</v>
+        <v>1116.509840133537</v>
       </c>
       <c r="V19" t="n">
-        <v>731.31772835508</v>
+        <v>861.8253519276506</v>
       </c>
       <c r="W19" t="n">
-        <v>731.31772835508</v>
+        <v>861.8253519276506</v>
       </c>
       <c r="X19" t="n">
-        <v>503.3281774570627</v>
+        <v>633.8358010296332</v>
       </c>
       <c r="Y19" t="n">
-        <v>282.5355983135325</v>
+        <v>413.0432218861031</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5750,10 +5750,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5771,31 +5771,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>2375.989236263799</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277034</v>
+        <v>2525.058920465859</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341676</v>
+        <v>3138.955990222748</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>3907.32413661521</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>4289.159124556163</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>4568.69918977486</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>4773.72167055707</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R21" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S21" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T21" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U21" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W21" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X21" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y21" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4282.308764190891</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="C22" t="n">
-        <v>4113.372581262984</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D22" t="n">
-        <v>3963.255941850648</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E22" t="n">
-        <v>3815.342848268255</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>3668.452900770345</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014293</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014293</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T22" t="n">
-        <v>4860.854573014293</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U22" t="n">
-        <v>4571.725934227851</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="V22" t="n">
-        <v>4571.725934227851</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="W22" t="n">
-        <v>4282.308764190891</v>
+        <v>898.50398699832</v>
       </c>
       <c r="X22" t="n">
-        <v>4282.308764190891</v>
+        <v>670.5144361003026</v>
       </c>
       <c r="Y22" t="n">
-        <v>4282.308764190891</v>
+        <v>594.9539715530981</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5987,13 +5987,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6011,28 +6011,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6072,19 +6072,19 @@
         <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>563.7235867775516</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M24" t="n">
-        <v>1332.091733170013</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N24" t="n">
-        <v>1661.954360834046</v>
+        <v>1538.857683528587</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2413.343925613456</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>665.6859735286137</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="C25" t="n">
-        <v>665.6859735286137</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="D25" t="n">
-        <v>515.5693341162779</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="E25" t="n">
-        <v>367.6562405338848</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F25" t="n">
-        <v>220.7662930359744</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G25" t="n">
-        <v>220.7662930359744</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028587</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V25" t="n">
-        <v>955.1031435655742</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W25" t="n">
-        <v>665.6859735286137</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="X25" t="n">
-        <v>665.6859735286137</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="Y25" t="n">
-        <v>665.6859735286137</v>
+        <v>531.3977182706323</v>
       </c>
     </row>
     <row r="26">
@@ -6206,13 +6206,13 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155897</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6224,7 +6224,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514085</v>
@@ -6245,7 +6245,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014293</v>
@@ -6309,16 +6309,16 @@
         <v>287.7778528277034</v>
       </c>
       <c r="L27" t="n">
-        <v>563.7235867775516</v>
+        <v>624.8682044203576</v>
       </c>
       <c r="M27" t="n">
-        <v>1332.091733170013</v>
+        <v>932.1883377003194</v>
       </c>
       <c r="N27" t="n">
-        <v>1661.954360834046</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P27" t="n">
         <v>2536.440602918915</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>675.2581065529675</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="C28" t="n">
-        <v>675.2581065529675</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="D28" t="n">
-        <v>675.2581065529675</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="E28" t="n">
-        <v>527.3450129705744</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R28" t="n">
-        <v>1442.856648755791</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S28" t="n">
-        <v>1442.856648755791</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="T28" t="n">
-        <v>1219.071233545296</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="U28" t="n">
-        <v>929.9425947588544</v>
+        <v>4460.650830789677</v>
       </c>
       <c r="V28" t="n">
-        <v>675.2581065529675</v>
+        <v>4205.96634258379</v>
       </c>
       <c r="W28" t="n">
-        <v>675.2581065529675</v>
+        <v>3916.549172546829</v>
       </c>
       <c r="X28" t="n">
-        <v>675.2581065529675</v>
+        <v>3752.338450124968</v>
       </c>
       <c r="Y28" t="n">
-        <v>675.2581065529675</v>
+        <v>3752.338450124968</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6549,19 +6549,19 @@
         <v>659.3731057211722</v>
       </c>
       <c r="M30" t="n">
-        <v>1427.741252113634</v>
+        <v>966.693239001134</v>
       </c>
       <c r="N30" t="n">
-        <v>1757.603879777667</v>
+        <v>1725.96990386717</v>
       </c>
       <c r="O30" t="n">
-        <v>2037.143944996364</v>
+        <v>2005.509969085867</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>696.2811958984813</v>
+        <v>3946.684906976818</v>
       </c>
       <c r="C31" t="n">
-        <v>527.3450129705744</v>
+        <v>3777.748724048911</v>
       </c>
       <c r="D31" t="n">
-        <v>527.3450129705744</v>
+        <v>3777.748724048911</v>
       </c>
       <c r="E31" t="n">
-        <v>527.3450129705744</v>
+        <v>3777.748724048911</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705744</v>
+        <v>3777.748724048911</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.210845262961</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765191</v>
+        <v>4571.72593422785</v>
       </c>
       <c r="V31" t="n">
-        <v>786.0822064765191</v>
+        <v>4317.041446021964</v>
       </c>
       <c r="W31" t="n">
-        <v>786.0822064765191</v>
+        <v>4167.477486120348</v>
       </c>
       <c r="X31" t="n">
-        <v>786.0822064765191</v>
+        <v>4167.477486120348</v>
       </c>
       <c r="Y31" t="n">
-        <v>786.0822064765191</v>
+        <v>3946.684906976818</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6692,16 +6692,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6722,28 +6722,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6765,16 +6765,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>138.7081686256435</v>
@@ -6786,10 +6786,10 @@
         <v>901.6749225845922</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.043068977054</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N33" t="n">
-        <v>1999.905696641086</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O33" t="n">
         <v>2331.418122136705</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028589</v>
+        <v>4055.216950748941</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028589</v>
+        <v>3886.280767821034</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028589</v>
+        <v>3886.280767821034</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028589</v>
+        <v>3885.755254472817</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028589</v>
+        <v>3738.865306974907</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028589</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028589</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688073</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.210845262961</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765191</v>
+        <v>4236.865415579181</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706323</v>
+        <v>4236.865415579181</v>
       </c>
       <c r="W34" t="n">
-        <v>531.3977182706323</v>
+        <v>4236.865415579181</v>
       </c>
       <c r="X34" t="n">
-        <v>303.4081673726149</v>
+        <v>4236.865415579181</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028589</v>
+        <v>4236.865415579181</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822463</v>
@@ -6935,10 +6935,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6953,7 +6953,7 @@
         <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6968,19 +6968,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701562</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L36" t="n">
-        <v>796.3635653766204</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M36" t="n">
-        <v>1198.760773441947</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N36" t="n">
-        <v>1528.62340110598</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3609.272033329011</v>
+        <v>4037.655901217364</v>
       </c>
       <c r="C37" t="n">
-        <v>3609.272033329011</v>
+        <v>3868.719718289457</v>
       </c>
       <c r="D37" t="n">
-        <v>3459.155393916676</v>
+        <v>3718.603078877121</v>
       </c>
       <c r="E37" t="n">
-        <v>3459.155393916676</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="F37" t="n">
-        <v>3459.155393916676</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916676</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916676</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I37" t="n">
         <v>3459.155393916676</v>
@@ -7120,25 +7120,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014293</v>
+        <v>4660.934562929846</v>
       </c>
       <c r="T37" t="n">
-        <v>4637.069157803799</v>
+        <v>4660.934562929846</v>
       </c>
       <c r="U37" t="n">
-        <v>4347.940519017357</v>
+        <v>4371.805924143404</v>
       </c>
       <c r="V37" t="n">
-        <v>4093.25603081147</v>
+        <v>4371.805924143404</v>
       </c>
       <c r="W37" t="n">
-        <v>3803.838860774509</v>
+        <v>4082.388754106443</v>
       </c>
       <c r="X37" t="n">
-        <v>3609.272033329011</v>
+        <v>4082.388754106443</v>
       </c>
       <c r="Y37" t="n">
-        <v>3609.272033329011</v>
+        <v>4082.388754106443</v>
       </c>
     </row>
     <row r="38">
@@ -7151,25 +7151,25 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155891</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805472</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7196,7 +7196,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231265</v>
@@ -7211,7 +7211,7 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7248,7 +7248,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J39" t="n">
         <v>138.7081686256435</v>
@@ -7257,19 +7257,19 @@
         <v>549.5984374701562</v>
       </c>
       <c r="L39" t="n">
-        <v>1163.495507227045</v>
+        <v>796.3635653766204</v>
       </c>
       <c r="M39" t="n">
-        <v>1470.815640507007</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N39" t="n">
-        <v>1800.678268171039</v>
+        <v>1908.095276920733</v>
       </c>
       <c r="O39" t="n">
-        <v>2080.218333389736</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q39" t="n">
         <v>2612.943493278838</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>299.8132378906425</v>
+        <v>3926.121309839312</v>
       </c>
       <c r="C40" t="n">
-        <v>130.8770549627356</v>
+        <v>3757.185126911405</v>
       </c>
       <c r="D40" t="n">
-        <v>130.8770549627356</v>
+        <v>3607.06848749907</v>
       </c>
       <c r="E40" t="n">
-        <v>130.8770549627356</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="F40" t="n">
-        <v>130.8770549627356</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431058</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436455</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042138</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.921157035281</v>
+        <v>4549.859459491672</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247865</v>
+        <v>4549.859459491672</v>
       </c>
       <c r="U40" t="n">
-        <v>964.1357418247865</v>
+        <v>4549.859459491672</v>
       </c>
       <c r="V40" t="n">
-        <v>709.4512536188996</v>
+        <v>4295.174971285785</v>
       </c>
       <c r="W40" t="n">
-        <v>709.4512536188996</v>
+        <v>4005.757801248825</v>
       </c>
       <c r="X40" t="n">
-        <v>481.4617027208823</v>
+        <v>3926.121309839312</v>
       </c>
       <c r="Y40" t="n">
-        <v>481.4617027208823</v>
+        <v>3926.121309839312</v>
       </c>
     </row>
     <row r="41">
@@ -7394,10 +7394,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G41" t="n">
         <v>488.193237080547</v>
@@ -7406,34 +7406,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277034</v>
+        <v>2525.058920465858</v>
       </c>
       <c r="L42" t="n">
-        <v>901.6749225845922</v>
+        <v>3138.955990222747</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.043068977054</v>
+        <v>3446.276123502709</v>
       </c>
       <c r="N42" t="n">
-        <v>1999.905696641086</v>
+        <v>3899.2354284722</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>4568.699189774859</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S42" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T42" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U42" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W42" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X42" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y42" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3759.690041781068</v>
+        <v>467.9934022109805</v>
       </c>
       <c r="C43" t="n">
-        <v>3759.690041781068</v>
+        <v>467.9934022109805</v>
       </c>
       <c r="D43" t="n">
-        <v>3609.573402368732</v>
+        <v>467.9934022109805</v>
       </c>
       <c r="E43" t="n">
-        <v>3609.573402368732</v>
+        <v>467.9934022109805</v>
       </c>
       <c r="F43" t="n">
-        <v>3609.573402368732</v>
+        <v>321.1034547130702</v>
       </c>
       <c r="G43" t="n">
-        <v>3609.573402368732</v>
+        <v>152.9281330328908</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916676</v>
+        <v>152.9281330328908</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>4749.779469576119</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>4749.779469576119</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>4749.779469576119</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U43" t="n">
-        <v>4644.805124858742</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V43" t="n">
-        <v>4390.120636652855</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W43" t="n">
-        <v>4390.120636652855</v>
+        <v>1098.423997082768</v>
       </c>
       <c r="X43" t="n">
-        <v>4162.131085754838</v>
+        <v>870.4344461847504</v>
       </c>
       <c r="Y43" t="n">
-        <v>3941.338506611308</v>
+        <v>649.6418670412203</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7634,43 +7634,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823779</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7682,16 +7682,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7713,16 +7713,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>138.7081686256435</v>
@@ -7731,22 +7731,22 @@
         <v>287.7778528277034</v>
       </c>
       <c r="L45" t="n">
-        <v>563.7235867775516</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M45" t="n">
-        <v>1332.091733170013</v>
+        <v>921.5583256030193</v>
       </c>
       <c r="N45" t="n">
-        <v>1661.954360834046</v>
+        <v>1725.96990386717</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>2005.509969085867</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>266.1532743881928</v>
+        <v>3890.044176674691</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N46" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557903</v>
+        <v>4581.613859434903</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557903</v>
+        <v>4581.613859434903</v>
       </c>
       <c r="U46" t="n">
-        <v>1259.037062672588</v>
+        <v>4292.485220648461</v>
       </c>
       <c r="V46" t="n">
-        <v>1004.352574466701</v>
+        <v>4292.485220648461</v>
       </c>
       <c r="W46" t="n">
-        <v>714.9354044297403</v>
+        <v>4292.485220648461</v>
       </c>
       <c r="X46" t="n">
-        <v>486.9458535317229</v>
+        <v>4292.485220648461</v>
       </c>
       <c r="Y46" t="n">
-        <v>266.1532743881928</v>
+        <v>4071.692641504931</v>
       </c>
     </row>
   </sheetData>
@@ -8058,10 +8058,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270189</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8711,7 +8711,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,10 +8769,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,16 +8781,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>85.30006332127738</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>124.3400780863223</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,10 +8924,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K14" t="n">
-        <v>324.145412571163</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9006,13 +9006,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>297.2466435761026</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,10 +9021,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445216</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9249,13 +9249,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229576</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>358.352002092504</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,13 +9483,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229574</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>52.49733361305107</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,10 +9720,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>29.47535963978191</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9735,7 +9735,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>124.3400780863223</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445216</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,19 +9957,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>29.47535963978191</v>
+        <v>91.23759968302028</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,22 +10197,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>433.7515527292963</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>87.16935584025367</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,13 +10434,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>124.3400780863224</v>
       </c>
       <c r="O33" t="n">
-        <v>52.49733361305221</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714816</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>369.0893880493729</v>
       </c>
       <c r="M36" t="n">
-        <v>96.03744927814625</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445216</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298197</v>
+        <v>65.7164198729829</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,22 +10905,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>134.49774535351</v>
       </c>
       <c r="P39" t="n">
-        <v>32.92248665775574</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11145,13 +11145,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>124.3400780863217</v>
       </c>
       <c r="O42" t="n">
-        <v>52.49733361305221</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11294,10 +11294,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.096615172073</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571163</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11379,25 +11379,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>29.47535963978191</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>80.50021372615163</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23419,19 +23419,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>8.047662122042908</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>166.9493667493276</v>
       </c>
     </row>
     <row r="14">
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>107.3747407780287</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>38.11448754785204</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>163.6134794958509</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,7 +23899,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>17.61933868224827</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>69.70828214251735</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>143.7797934503623</v>
       </c>
     </row>
     <row r="23">
@@ -24367,10 +24367,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>10.93001849479364</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>137.0193642718764</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,16 +24607,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>54.46532681970154</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,10 +24661,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>63.14104019139458</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>90.92897970967989</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,25 +24886,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>138.4546780339913</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>145.913704431834</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,16 +25132,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>14.45548819888904</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,16 +25309,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>135.5464558217487</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25330,7 +25330,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,22 +25360,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>33.08849621799425</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25546,22 +25546,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>133.1702045959523</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -25609,10 +25609,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>146.8695288936198</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25789,22 +25789,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>55.26531430739309</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,13 +25840,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>182.3127511283743</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,25 +26068,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>31.43685594380088</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>48.75693659211547</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>751919.5123764881</v>
+        <v>751919.5123764882</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>751919.512376488</v>
+        <v>751919.5123764882</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>751919.512376488</v>
+        <v>751919.5123764881</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>751919.512376488</v>
+        <v>751919.5123764878</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>751919.5123764881</v>
+        <v>751919.512376488</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>751919.512376488</v>
+        <v>751919.5123764881</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>751919.5123764881</v>
+        <v>751919.512376488</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>751919.512376488</v>
+        <v>751919.5123764882</v>
       </c>
     </row>
     <row r="15">
@@ -26314,43 +26314,43 @@
         <v>677359.4601380334</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380331</v>
       </c>
       <c r="E2" t="n">
+        <v>645197.9485672198</v>
+      </c>
+      <c r="F2" t="n">
+        <v>645197.9485672195</v>
+      </c>
+      <c r="G2" t="n">
+        <v>645197.9485672197</v>
+      </c>
+      <c r="H2" t="n">
         <v>645197.9485672193</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
+        <v>645197.9485672193</v>
+      </c>
+      <c r="J2" t="n">
+        <v>645197.9485672193</v>
+      </c>
+      <c r="K2" t="n">
         <v>645197.9485672194</v>
       </c>
-      <c r="G2" t="n">
-        <v>645197.948567219</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
+        <v>645197.9485672191</v>
+      </c>
+      <c r="M2" t="n">
         <v>645197.9485672194</v>
       </c>
-      <c r="I2" t="n">
-        <v>645197.9485672192</v>
-      </c>
-      <c r="J2" t="n">
-        <v>645197.9485672192</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645197.9485672192</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645197.9485672193</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645197.9485672195</v>
-      </c>
       <c r="N2" t="n">
+        <v>645197.9485672197</v>
+      </c>
+      <c r="O2" t="n">
         <v>645197.9485672194</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645197.9485672193</v>
       </c>
       <c r="P2" t="n">
         <v>645197.9485672193</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.150924617832061e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="E4" t="n">
-        <v>31338.3647902992</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="F4" t="n">
-        <v>31338.3647902992</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="G4" t="n">
-        <v>31338.3647902992</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="H4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="I4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="J4" t="n">
-        <v>31338.3647902992</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>31338.3647902992</v>
+        <v>29303.54555230231</v>
       </c>
       <c r="L4" t="n">
-        <v>31338.36479029915</v>
+        <v>29303.54555230231</v>
       </c>
       <c r="M4" t="n">
-        <v>31338.3647902992</v>
+        <v>29303.54555230229</v>
       </c>
       <c r="N4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230225</v>
       </c>
       <c r="O4" t="n">
-        <v>31338.36479029919</v>
+        <v>29303.54555230224</v>
       </c>
       <c r="P4" t="n">
-        <v>31338.3647902992</v>
+        <v>29303.54555230231</v>
       </c>
     </row>
     <row r="5">
@@ -26470,19 +26470,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871665</v>
@@ -26497,19 +26497,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871665</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-172486.5956251891</v>
+        <v>-169958.2744617468</v>
       </c>
       <c r="C6" t="n">
-        <v>417481.2835893554</v>
+        <v>420009.6047527979</v>
       </c>
       <c r="D6" t="n">
-        <v>417481.2835893558</v>
+        <v>420009.6047527975</v>
       </c>
       <c r="E6" t="n">
-        <v>-3287.77864869278</v>
+        <v>-1252.959410695461</v>
       </c>
       <c r="F6" t="n">
-        <v>521872.2578282036</v>
+        <v>523907.0770662007</v>
       </c>
       <c r="G6" t="n">
-        <v>521872.2578282031</v>
+        <v>523907.0770662007</v>
       </c>
       <c r="H6" t="n">
-        <v>521872.2578282036</v>
+        <v>523907.0770662004</v>
       </c>
       <c r="I6" t="n">
-        <v>521872.2578282033</v>
+        <v>523907.0770662004</v>
       </c>
       <c r="J6" t="n">
-        <v>345449.0386356103</v>
+        <v>347483.8578736074</v>
       </c>
       <c r="K6" t="n">
-        <v>521872.2578282034</v>
+        <v>523907.0770662006</v>
       </c>
       <c r="L6" t="n">
-        <v>521872.2578282034</v>
+        <v>523907.0770662002</v>
       </c>
       <c r="M6" t="n">
-        <v>387071.2425943666</v>
+        <v>389106.0618323633</v>
       </c>
       <c r="N6" t="n">
-        <v>521872.2578282036</v>
+        <v>523907.0770662007</v>
       </c>
       <c r="O6" t="n">
-        <v>521872.2578282034</v>
+        <v>523907.0770662006</v>
       </c>
       <c r="P6" t="n">
-        <v>521872.2578282034</v>
+        <v>523907.0770662004</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545557</v>
@@ -26817,13 +26817,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253573</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27039,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>28.73685725125216</v>
+        <v>39.53802575917745</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,13 +27546,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>48.01406787059304</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27585,7 +27585,7 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>89.5180355004818</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,19 +27619,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>262.7091563715053</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>126.5388008156256</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1620931860737</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,13 +27828,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>53.97620323457207</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>371.5048697144508</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>213.0920084848129</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>94.2839778590141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>125.5036511103489</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -29812,7 +29812,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>-1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -31279,46 +31279,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31455,28 +31455,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -34778,10 +34778,10 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932195</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,10 +35094,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
         <v>146.3614835535656</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,10 +35489,10 @@
         <v>41.91017895490671</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504664</v>
@@ -35501,16 +35501,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>367.6637655623856</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>212.3531108713965</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303314</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109073</v>
@@ -35726,13 +35726,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>546.504348532127</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980129</v>
@@ -35741,10 +35741,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879393</v>
@@ -35969,13 +35969,13 @@
         <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734239</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415666</v>
+        <v>691.5465754905169</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P18" t="n">
         <v>207.0934149315248</v>
@@ -35984,7 +35984,7 @@
         <v>88.01303278507416</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,13 +36203,13 @@
         <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734238</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415666</v>
+        <v>385.691907011064</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,10 +36440,10 @@
         <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>278.7330645958063</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36455,7 +36455,7 @@
         <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>212.3531108713965</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,19 +36677,19 @@
         <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
-        <v>278.7330645958063</v>
+        <v>340.4953046390447</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q27" t="n">
         <v>88.01303278507416</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,22 +36917,22 @@
         <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>766.9461261273093</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>294.2627707717784</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,13 +37154,13 @@
         <v>620.0980502594836</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>457.5346514843354</v>
       </c>
       <c r="O33" t="n">
-        <v>334.8610358541604</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P33" t="n">
         <v>207.0934149315248</v>
@@ -37321,7 +37321,7 @@
         <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109114</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
         <v>350.4995841502049</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>618.3470930053973</v>
       </c>
       <c r="M36" t="n">
-        <v>406.4618263286126</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,22 +37625,22 @@
         <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>416.8614475946183</v>
       </c>
       <c r="P39" t="n">
-        <v>240.0159015892805</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R39" t="n">
         <v>10.73738595686866</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415062</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
@@ -37865,13 +37865,13 @@
         <v>620.0980502594836</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>457.5346514843347</v>
       </c>
       <c r="O42" t="n">
-        <v>334.8610358541604</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P42" t="n">
         <v>207.0934149315248</v>
@@ -38014,10 +38014,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415071</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303314</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109073</v>
@@ -38099,25 +38099,25 @@
         <v>150.5754385879393</v>
       </c>
       <c r="L45" t="n">
-        <v>278.7330645958063</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>390.924590776618</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q45" t="n">
         <v>88.01303278507416</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3066724.763757274</v>
+        <v>3059707.748865562</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>228.6438434528992</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>27.78560849791136</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,16 +819,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>11.54899921738547</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>208.3423105940807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,13 +907,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>399.3976635617693</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>252.5570757336668</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1053,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.88251911919378</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>25.31590541686252</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>73.25636563831901</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>160.1961487468638</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>55.84003136202612</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>25.3159054168623</v>
       </c>
     </row>
     <row r="11">
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>38.39569353563454</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051997</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065123</v>
       </c>
       <c r="U16" t="n">
-        <v>183.1796758467</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417107</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274103</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>49.38162151975479</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>100.344553571276</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498009</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>175.988024621407</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>82.55407911893376</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2484,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>37.27952228077671</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2772,7 +2772,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>39.11561436815803</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2955,13 +2955,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>110.6907158639465</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>172.7067178467367</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>44.96582255351656</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3319,7 +3319,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>234.8031540381808</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3559,7 +3559,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>132.9671286408142</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -3711,13 +3711,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>26.88118599469496</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.7791350527402</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3903,13 +3903,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>112.8722262355888</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4188,13 +4188,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>206.8064269214866</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1238.153685885794</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="C2" t="n">
-        <v>1238.153685885794</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="D2" t="n">
-        <v>1238.153685885794</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="E2" t="n">
-        <v>1238.153685885794</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>827.1677810961862</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>409.2039729943731</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>82.00925303037593</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.358616186807</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X2" t="n">
-        <v>2014.892857925727</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="Y2" t="n">
-        <v>1624.753525949915</v>
+        <v>1267.312047941846</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,22 +4412,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517.6822058285749</v>
+        <v>409.2948950230958</v>
       </c>
       <c r="C4" t="n">
-        <v>348.7460229006679</v>
+        <v>409.2948950230958</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>259.1782556107601</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>111.2651620283669</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>409.2948950230958</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>409.2948950230958</v>
       </c>
       <c r="Y4" t="n">
-        <v>517.6822058285749</v>
+        <v>409.2948950230958</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1882.054803223514</v>
+        <v>1584.314837422907</v>
       </c>
       <c r="C5" t="n">
-        <v>1882.054803223514</v>
+        <v>1215.352320482495</v>
       </c>
       <c r="D5" t="n">
-        <v>1523.789104616764</v>
+        <v>857.0866218757444</v>
       </c>
       <c r="E5" t="n">
-        <v>1138.000852018519</v>
+        <v>471.2983692775002</v>
       </c>
       <c r="F5" t="n">
-        <v>727.0149472289118</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>309.0511391270986</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.654643287636</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y5" t="n">
-        <v>2268.654643287636</v>
+        <v>1970.914677487028</v>
       </c>
     </row>
     <row r="6">
@@ -4658,10 +4658,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>551.8181649141599</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C7" t="n">
-        <v>551.8181649141599</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D7" t="n">
-        <v>551.8181649141599</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>551.8181649141599</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>404.9282174162495</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>699.9648234799758</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>551.8181649141599</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>551.8181649141599</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>551.8181649141599</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>551.8181649141599</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>551.8181649141599</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>551.8181649141599</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>551.8181649141599</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>551.8181649141599</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1684.117239186542</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="C8" t="n">
-        <v>1315.154722246131</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="D8" t="n">
-        <v>956.8890236393802</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4834,22 +4834,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2070.717079250664</v>
+        <v>2480.306109885217</v>
       </c>
       <c r="X8" t="n">
-        <v>2070.717079250664</v>
+        <v>2480.306109885217</v>
       </c>
       <c r="Y8" t="n">
-        <v>2070.717079250664</v>
+        <v>2090.166777909405</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4895,31 +4895,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.942782082032</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C10" t="n">
-        <v>222.942782082032</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D10" t="n">
-        <v>222.942782082032</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4986,28 +4986,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>671.7249121235795</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>671.7249121235795</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>671.7249121235795</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>671.7249121235795</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>671.7249121235795</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>671.7249121235795</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>443.7353612255621</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.942782082032</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
@@ -5029,64 +5029,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O12" t="n">
-        <v>2302.237516093321</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.9829531089972</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>695.9829531089972</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>545.8663136966615</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>397.9532201142683</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>1387.841167119728</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V13" t="n">
-        <v>1387.841167119728</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W13" t="n">
-        <v>1098.423997082767</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>1098.423997082767</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y13" t="n">
-        <v>877.6314179392369</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5257,10 +5257,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5269,40 +5269,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5311,16 +5311,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,19 +5454,19 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U16" t="n">
         <v>1090.100879744681</v>
@@ -5481,7 +5481,7 @@
         <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
         <v>1701.09316900344</v>
@@ -5503,49 +5503,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805472</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822465</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
         <v>4262.3578574653</v>
@@ -5554,10 +5554,10 @@
         <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5582,13 +5582,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
@@ -5597,19 +5597,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>416.5712828402495</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="C19" t="n">
-        <v>247.6350999123426</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="D19" t="n">
-        <v>247.6350999123426</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E19" t="n">
-        <v>247.6350999123426</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1397.558135637422</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U19" t="n">
-        <v>1108.42949685098</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V19" t="n">
-        <v>1108.42949685098</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W19" t="n">
-        <v>819.0123268140193</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X19" t="n">
-        <v>819.0123268140193</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="Y19" t="n">
-        <v>598.2197476704891</v>
+        <v>441.9005583181194</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5752,10 +5752,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5767,37 +5767,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5819,34 +5819,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701563</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>796.3635653766206</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>560.9563154684962</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C22" t="n">
-        <v>392.0201325405893</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D22" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5910,16 +5910,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1321.150589122138</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1321.150589122138</v>
+        <v>1215.608301767461</v>
       </c>
       <c r="U22" t="n">
-        <v>1032.021950335697</v>
+        <v>926.4796629810191</v>
       </c>
       <c r="V22" t="n">
-        <v>1032.021950335697</v>
+        <v>926.4796629810191</v>
       </c>
       <c r="W22" t="n">
-        <v>742.6047802987359</v>
+        <v>637.0624929440586</v>
       </c>
       <c r="X22" t="n">
-        <v>742.6047802987359</v>
+        <v>637.0624929440586</v>
       </c>
       <c r="Y22" t="n">
-        <v>742.6047802987359</v>
+        <v>416.2699138005285</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5980,7 +5980,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5998,19 +5998,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6022,19 +6022,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>565.0010960824701</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>565.0010960824701</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>565.0010960824701</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6150,13 +6150,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U25" t="n">
-        <v>1075.210845262961</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>1075.210845262961</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>785.7936752260002</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>785.7936752260002</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>565.0010960824701</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6208,37 +6208,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6247,7 +6247,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6314,19 +6314,19 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6408,25 +6408,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598086</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
         <v>97.21709146028584</v>
@@ -6442,40 +6442,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6548,7 +6548,7 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1206.718781115524</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M30" t="n">
         <v>1514.038914395485</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3867.970784729898</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>3867.970784729898</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>3717.854145317562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>3606.045341414586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014292</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T31" t="n">
-        <v>4860.854573014292</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U31" t="n">
-        <v>4860.854573014292</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V31" t="n">
-        <v>4606.170084808406</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W31" t="n">
-        <v>4316.752914771445</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X31" t="n">
-        <v>4088.763363873428</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y31" t="n">
-        <v>3867.970784729898</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,49 +6679,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6779,25 +6779,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028584</v>
@@ -6888,22 +6888,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1298.996260473455</v>
+        <v>1124.545030325236</v>
       </c>
       <c r="U34" t="n">
-        <v>1009.867621687013</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V34" t="n">
-        <v>964.447598905683</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W34" t="n">
-        <v>675.0304288687223</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X34" t="n">
-        <v>447.040877970705</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y34" t="n">
-        <v>447.040877970705</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7125,22 +7125,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1379.229518531123</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>1090.100879744681</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>835.416391538794</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>545.9992215018333</v>
+        <v>494.1428252862101</v>
       </c>
       <c r="X37" t="n">
-        <v>318.0096706038159</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7189,37 +7189,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.043068977054</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>978.2031513914709</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C40" t="n">
-        <v>809.266968463564</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D40" t="n">
-        <v>659.1503290512283</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E40" t="n">
-        <v>511.2372354688351</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F40" t="n">
-        <v>376.9270045185178</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7359,25 +7359,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1387.841167119728</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U40" t="n">
-        <v>1387.841167119728</v>
+        <v>936.9830286988315</v>
       </c>
       <c r="V40" t="n">
-        <v>1387.841167119728</v>
+        <v>936.9830286988315</v>
       </c>
       <c r="W40" t="n">
-        <v>1387.841167119728</v>
+        <v>936.9830286988315</v>
       </c>
       <c r="X40" t="n">
-        <v>1159.851616221711</v>
+        <v>708.9934778008142</v>
       </c>
       <c r="Y40" t="n">
-        <v>1159.851616221711</v>
+        <v>708.9934778008142</v>
       </c>
     </row>
     <row r="41">
@@ -7399,37 +7399,37 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7487,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>506.0324822735073</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>506.0324822735073</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>954.8146123150548</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>726.8250614170374</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>506.0324822735073</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4660.934562929846</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>4660.934562929846</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>4452.039182201072</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>4197.354693995185</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>3907.937523958224</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>3679.947973060207</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,13 +8306,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>29.47535963978268</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8947,10 +8947,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627457</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>96.03744927814563</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9962,7 +9962,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>277.6717966208068</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>288.4091825776757</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10834,7 +10834,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10901,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445217</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>409.7003683229581</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>107.0253544872967</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23706,10 +23706,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>103.0576765518769</v>
       </c>
       <c r="U16" t="n">
-        <v>103.0576765518773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>99.23385149845757</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23943,13 +23943,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>121.2030074871133</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24177,10 +24177,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>21.93278536219623</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>138.9934819394555</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24372,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>109.1544403657925</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,22 +24414,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>213.02202895567</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,13 +24843,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>35.74324678262269</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24888,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25128,13 +25128,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>48.84084321165255</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>207.1718207703115</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25365,7 +25365,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>51.71984429841024</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25551,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>12.45391938211708</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>259.3561664038824</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25791,13 +25791,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>35.74324678262356</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25836,16 +25836,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26076,13 +26076,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>79.43092547709071</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>751919.5123764881</v>
+        <v>751919.512376488</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>751919.5123764878</v>
+        <v>751919.5123764881</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>751919.512376488</v>
+        <v>751919.5123764881</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>751919.5123764881</v>
+        <v>751919.5123764882</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>751919.5123764882</v>
+        <v>751919.512376488</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>751919.512376488</v>
+        <v>751919.5123764881</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>751919.5123764882</v>
+        <v>751919.5123764881</v>
       </c>
     </row>
     <row r="15">
@@ -26322,40 +26322,40 @@
         <v>677359.4601380333</v>
       </c>
       <c r="E2" t="n">
+        <v>645197.9485672193</v>
+      </c>
+      <c r="F2" t="n">
         <v>645197.9485672195</v>
-      </c>
-      <c r="F2" t="n">
-        <v>645197.9485672192</v>
       </c>
       <c r="G2" t="n">
         <v>645197.9485672195</v>
       </c>
       <c r="H2" t="n">
+        <v>645197.9485672194</v>
+      </c>
+      <c r="I2" t="n">
         <v>645197.9485672193</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>645197.9485672194</v>
+      </c>
+      <c r="K2" t="n">
         <v>645197.9485672197</v>
       </c>
-      <c r="J2" t="n">
-        <v>645197.9485672197</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645197.9485672195</v>
-      </c>
       <c r="L2" t="n">
-        <v>645197.9485672193</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="M2" t="n">
-        <v>645197.9485672195</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="N2" t="n">
         <v>645197.9485672195</v>
       </c>
       <c r="O2" t="n">
+        <v>645197.9485672194</v>
+      </c>
+      <c r="P2" t="n">
         <v>645197.9485672197</v>
-      </c>
-      <c r="P2" t="n">
-        <v>645197.9485672198</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.814493611714126e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.482032298052218e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26429,16 +26429,16 @@
         <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230228</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230236</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230231</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
         <v>29303.54555230233</v>
@@ -26450,13 +26450,13 @@
         <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230228</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230235</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
         <v>29303.54555230233</v>
@@ -26478,10 +26478,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-169958.2744617466</v>
+        <v>-169958.2744617467</v>
       </c>
       <c r="C6" t="n">
         <v>420009.6047527979</v>
@@ -26530,40 +26530,40 @@
         <v>420009.6047527976</v>
       </c>
       <c r="E6" t="n">
-        <v>-1252.959410695548</v>
+        <v>-2227.550670417685</v>
       </c>
       <c r="F6" t="n">
-        <v>523907.0770662002</v>
+        <v>522932.4858064789</v>
       </c>
       <c r="G6" t="n">
-        <v>523907.0770662006</v>
+        <v>522932.485806479</v>
       </c>
       <c r="H6" t="n">
-        <v>523907.0770662001</v>
+        <v>522932.4858064789</v>
       </c>
       <c r="I6" t="n">
-        <v>523907.0770662008</v>
+        <v>522932.4858064787</v>
       </c>
       <c r="J6" t="n">
-        <v>347483.857873608</v>
+        <v>346509.2666138859</v>
       </c>
       <c r="K6" t="n">
-        <v>523907.0770662006</v>
+        <v>522932.4858064791</v>
       </c>
       <c r="L6" t="n">
-        <v>523907.0770662003</v>
+        <v>522932.4858064789</v>
       </c>
       <c r="M6" t="n">
-        <v>389106.0618323635</v>
+        <v>388131.4705726416</v>
       </c>
       <c r="N6" t="n">
-        <v>523907.0770662006</v>
+        <v>522932.4858064789</v>
       </c>
       <c r="O6" t="n">
-        <v>523907.0770662007</v>
+        <v>522932.4858064789</v>
       </c>
       <c r="P6" t="n">
-        <v>523907.0770662008</v>
+        <v>522932.4858064791</v>
       </c>
     </row>
   </sheetData>
@@ -26700,19 +26700,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.518117014642657e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.518117014642657e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.518117014642657e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.518117014642657e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.518117014642657e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26724,7 +26724,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26737,34 +26737,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
@@ -26776,7 +26776,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541003</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.518117014642657e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.518117014642657e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>153.2865266193626</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>124.1457077469499</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,16 +27539,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>133.8720488055458</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.24234275801405</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,13 +27627,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>7.478382179942116</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>71.36569703069034</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.240230835720528</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>193.2687479352323</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>308.6740044339427</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>189.0448199705492</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>90.82516061813175</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>193.2687479352325</v>
       </c>
     </row>
     <row r="11">
@@ -28575,7 +28575,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>7.525941774539593e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -30480,7 +30480,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>5.785973998768142e-13</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,10 +32165,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104652</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,43 +32548,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337673</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,10 +32700,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,37 +32712,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32818,7 +32818,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35263,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>236.5687745713073</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349819</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>378.401151519254</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.556183571462</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>588.096173671273</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,19 +36916,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>537.6668875337</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37554,7 +37554,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
         <v>713.1546070951472</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3059707.748865562</v>
+        <v>3064647.011714594</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8818569.875074532</v>
+        <v>8818569.87507453</v>
       </c>
     </row>
     <row r="11">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>228.6438434528992</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>219.3573038660101</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -828,16 +828,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>11.54899921738547</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -907,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>399.3976635617693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>341.762586537471</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>25.31590541686252</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>25.31590541686252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>160.1961487468638</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>160.1961487468643</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>130.8251764553485</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>25.3159054168623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>115.526976800218</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051997</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>118.4898845065123</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2007,13 +2007,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>49.38162151975479</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>115.5269768002174</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498009</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>82.55407911893376</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>241.6425101371057</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>0.1661384044145893</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2772,7 +2772,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>39.11561436815803</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>118.4898845065119</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>206.806426921486</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>172.7067178467367</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>234.8031540381808</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>26.88118599469496</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>221.238822548301</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3957,7 +3957,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>169.7438101404424</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>169.7438101404424</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1267.312047941846</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C2" t="n">
-        <v>1267.312047941846</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D2" t="n">
-        <v>1267.312047941846</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2475.576056810131</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2475.576056810131</v>
       </c>
       <c r="W2" t="n">
-        <v>1640.777806202926</v>
+        <v>2122.807401540017</v>
       </c>
       <c r="X2" t="n">
-        <v>1267.312047941846</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="Y2" t="n">
-        <v>1267.312047941846</v>
+        <v>1749.341643278937</v>
       </c>
     </row>
     <row r="3">
@@ -4476,13 +4476,13 @@
         <v>111.2651620283669</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>111.2651620283669</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>111.2651620283669</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>111.2651620283669</v>
       </c>
       <c r="I4" t="n">
         <v>99.5995062532301</v>
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1584.314837422907</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1215.352320482495</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>857.0866218757444</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>471.2983692775002</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
         <v>67.86638588177355</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4606,13 +4606,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748108</v>
+        <v>2351.934357141989</v>
       </c>
       <c r="X5" t="n">
-        <v>1970.914677487028</v>
+        <v>1978.468598880909</v>
       </c>
       <c r="Y5" t="n">
-        <v>1970.914677487028</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4746,28 +4746,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>702.55736257324</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>702.55736257324</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>702.55736257324</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>702.55736257324</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>702.55736257324</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>702.55736257324</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>702.55736257324</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>702.55736257324</v>
       </c>
       <c r="Y7" t="n">
         <v>702.55736257324</v>
@@ -4801,31 +4801,31 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4843,7 +4843,7 @@
         <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2480.306109885217</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
         <v>2480.306109885217</v>
@@ -4859,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.9088977430002</v>
+        <v>566.5654221758658</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150933</v>
+        <v>397.6292392479589</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="Y10" t="n">
-        <v>702.55736257324</v>
+        <v>698.7120650600563</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
@@ -5029,31 +5029,31 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643324</v>
@@ -5065,28 +5065,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571611</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636253</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1382.222354598087</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T13" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W13" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5269,40 +5269,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1379.229518531123</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5509,16 +5509,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5527,40 +5527,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5582,34 +5582,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>441.9005583181194</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="C19" t="n">
-        <v>441.9005583181194</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="D19" t="n">
-        <v>392.0201325405893</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347409</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609669</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V19" t="n">
-        <v>731.31772835508</v>
+        <v>731.3177283550793</v>
       </c>
       <c r="W19" t="n">
-        <v>441.9005583181194</v>
+        <v>441.9005583181187</v>
       </c>
       <c r="X19" t="n">
-        <v>441.9005583181194</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="Y19" t="n">
-        <v>441.9005583181194</v>
+        <v>213.9110074201014</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,10 +5737,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5749,55 +5749,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5819,28 +5819,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>416.2699138005285</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C22" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5919,43 +5919,43 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471156</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974663</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.48306298006</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585743</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="T22" t="n">
-        <v>1215.608301767461</v>
+        <v>1275.130855347405</v>
       </c>
       <c r="U22" t="n">
-        <v>926.4796629810191</v>
+        <v>1031.04751177457</v>
       </c>
       <c r="V22" t="n">
-        <v>926.4796629810191</v>
+        <v>776.3630235686835</v>
       </c>
       <c r="W22" t="n">
-        <v>637.0624929440586</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="X22" t="n">
-        <v>637.0624929440586</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y22" t="n">
-        <v>416.2699138005285</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="23">
@@ -5986,31 +5986,31 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6056,28 +6056,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1379.229518531123</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1379.229518531123</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6220,58 +6220,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6302,7 +6302,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.748453987787</v>
       </c>
       <c r="T28" t="n">
-        <v>1164.055751909234</v>
+        <v>1274.963038777292</v>
       </c>
       <c r="U28" t="n">
-        <v>874.927113122792</v>
+        <v>985.8343999908507</v>
       </c>
       <c r="V28" t="n">
-        <v>835.416391538794</v>
+        <v>985.8343999908507</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>696.41722995389</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>468.4276790558727</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="29">
@@ -6451,43 +6451,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6548,7 +6548,7 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1206.718781115523</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M30" t="n">
         <v>1514.038914395485</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6648,10 +6648,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1379.229518531123</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1379.229518531123</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U31" t="n">
         <v>1090.100879744681</v>
@@ -6666,7 +6666,7 @@
         <v>318.0096706038159</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6691,40 +6691,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6888,22 +6888,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1124.545030325236</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>835.416391538794</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V34" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W34" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6916,34 +6916,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>494.1428252862101</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7153,46 +7153,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C40" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D40" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E40" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7362,22 +7362,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>964.135741824786</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U40" t="n">
-        <v>936.9830286988315</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V40" t="n">
-        <v>936.9830286988315</v>
+        <v>964.447598905683</v>
       </c>
       <c r="W40" t="n">
-        <v>936.9830286988315</v>
+        <v>675.0304288687223</v>
       </c>
       <c r="X40" t="n">
-        <v>708.9934778008142</v>
+        <v>447.040877970705</v>
       </c>
       <c r="Y40" t="n">
-        <v>708.9934778008142</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="41">
@@ -7393,37 +7393,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7596,13 +7596,13 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
         <v>614.6238123952637</v>
@@ -7636,13 +7636,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7675,10 +7675,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
   </sheetData>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776749</v>
+        <v>288.409182577676</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>288.409182577675</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10834,7 +10834,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -23466,7 +23466,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>82.39383318338523</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>103.0576765518769</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23895,13 +23895,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>99.23385149845757</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>30.90698584635177</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24177,16 +24177,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>138.9934819394555</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>44.5948422614716</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>79.43092547709136</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>197.7546715791887</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>213.02202895567</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>79.43092547709136</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25128,13 +25128,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>48.84084321165255</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25362,19 +25362,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>51.71984429841024</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,16 +25602,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>259.3561664038824</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>30.89882077552699</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>82.39383318338562</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>61.34209567542518</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26073,16 +26073,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>82.39383318338562</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>751919.512376488</v>
+        <v>751919.5123764881</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>751919.512376488</v>
+        <v>751919.5123764881</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>751919.5123764881</v>
+        <v>751919.512376488</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>751919.5123764882</v>
+        <v>751919.5123764881</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>751919.512376488</v>
+        <v>751919.5123764881</v>
       </c>
     </row>
     <row r="12">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380333</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="E2" t="n">
         <v>645197.9485672193</v>
       </c>
       <c r="F2" t="n">
-        <v>645197.9485672195</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="G2" t="n">
         <v>645197.9485672195</v>
       </c>
       <c r="H2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672191</v>
       </c>
       <c r="I2" t="n">
         <v>645197.9485672193</v>
       </c>
       <c r="J2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672195</v>
       </c>
       <c r="K2" t="n">
         <v>645197.9485672197</v>
       </c>
       <c r="L2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672193</v>
       </c>
       <c r="M2" t="n">
         <v>645197.9485672194</v>
       </c>
       <c r="N2" t="n">
-        <v>645197.9485672195</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="O2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672197</v>
       </c>
       <c r="P2" t="n">
-        <v>645197.9485672197</v>
+        <v>645197.9485672198</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,16 +26423,16 @@
         <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218262</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="E4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230228</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230238</v>
       </c>
       <c r="H4" t="n">
         <v>29303.54555230233</v>
@@ -26441,13 +26441,13 @@
         <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="K4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="M4" t="n">
         <v>29303.54555230233</v>
@@ -26475,22 +26475,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26502,10 +26502,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-169958.2744617467</v>
+        <v>-169958.2744617468</v>
       </c>
       <c r="C6" t="n">
-        <v>420009.6047527979</v>
+        <v>420009.604752798</v>
       </c>
       <c r="D6" t="n">
-        <v>420009.6047527976</v>
+        <v>420009.6047527981</v>
       </c>
       <c r="E6" t="n">
-        <v>-2227.550670417685</v>
+        <v>-1350.418536667829</v>
       </c>
       <c r="F6" t="n">
-        <v>522932.4858064789</v>
+        <v>523809.6179402283</v>
       </c>
       <c r="G6" t="n">
-        <v>522932.485806479</v>
+        <v>523809.6179402286</v>
       </c>
       <c r="H6" t="n">
-        <v>522932.4858064789</v>
+        <v>523809.6179402279</v>
       </c>
       <c r="I6" t="n">
-        <v>522932.4858064787</v>
+        <v>523809.6179402281</v>
       </c>
       <c r="J6" t="n">
-        <v>346509.2666138859</v>
+        <v>347386.3987476354</v>
       </c>
       <c r="K6" t="n">
-        <v>522932.4858064791</v>
+        <v>523809.6179402285</v>
       </c>
       <c r="L6" t="n">
-        <v>522932.4858064789</v>
+        <v>523809.6179402281</v>
       </c>
       <c r="M6" t="n">
-        <v>388131.4705726416</v>
+        <v>389008.6027063912</v>
       </c>
       <c r="N6" t="n">
-        <v>522932.4858064789</v>
+        <v>523809.6179402284</v>
       </c>
       <c r="O6" t="n">
-        <v>522932.4858064789</v>
+        <v>523809.6179402286</v>
       </c>
       <c r="P6" t="n">
-        <v>522932.4858064791</v>
+        <v>523809.6179402286</v>
       </c>
     </row>
   </sheetData>
@@ -26746,34 +26746,34 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541003</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370139</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545561</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>153.2865266193626</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>31.86686364227918</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27548,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>133.8720488055458</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27557,7 +27557,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>123.4166225749528</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>7.478382179942116</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>7.478382179942002</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>3.806844538051777</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>193.2687479352323</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>189.0448199705492</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>209.5349519316048</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>49.00680372658877</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>193.2687479352325</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28857,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -28991,7 +28991,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>-1.298977755714201e-12</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,10 +32165,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,43 +32390,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209233</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789689</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,19 +36916,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>537.6668875336993</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,16 +37545,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
         <v>713.1546070951472</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
